--- a/ejemplos/modelos_arbol_individual-masas_puras/Phalepensis_Aragon_IFN_todo.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_puras/Phalepensis_Aragon_IFN_todo.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,65 +371,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_especie_principal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -447,39 +452,42 @@
         </is>
       </c>
       <c r="C2">
-        <v>24</v>
-      </c>
-      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="F2">
         <v>35</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>254.6479089470325</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.05825</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4.5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.7202423536331397</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>42.27581127304372</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>22.81109769795858</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>21.3690572553428</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>20.48407644867448</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>19.60174222587566</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>18.62446754436796</v>
       </c>
     </row>
@@ -495,39 +503,42 @@
         </is>
       </c>
       <c r="C3">
-        <v>24</v>
-      </c>
-      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="F3">
         <v>30</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1018.59163578813</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>11.06483125</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>8.318309886183791</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.7087775107650356</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>42.25757212116589</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>22.81109769795858</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>21.367437364988</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>20.47938645720762</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>19.59413052744842</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>18.61374051221815</v>
       </c>
     </row>
@@ -543,39 +554,42 @@
         </is>
       </c>
       <c r="C4">
-        <v>24</v>
-      </c>
-      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>102.5665188814437</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5.265653472222222</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6.117214619733391</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.2513143233200058</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>42.18447943184577</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>24.61696812668274</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>23.808891792888</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>22.97170575740301</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>21.98357547964379</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>20.88888881971807</v>
       </c>
     </row>
@@ -591,39 +605,42 @@
         </is>
       </c>
       <c r="C5">
-        <v>24</v>
-      </c>
-      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="F5">
         <v>26</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>859.4366926962348</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>11.6477</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>8.499999999999998</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.001603372769562589</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>42.08817003648597</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>21.10061177332261</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>20.44103549951306</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>19.70707366590505</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>18.78197334113128</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>17.79365796382601</v>
       </c>
     </row>
@@ -639,39 +656,42 @@
         </is>
       </c>
       <c r="C6">
-        <v>24</v>
-      </c>
-      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="F6">
         <v>27</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>190.9859317102744</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.44613125</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>6</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.2699842237446595</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>42.03183750202464</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>21.33377990038201</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>21.07659780934286</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>20.40285497737899</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>19.49163052233736</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>18.40557748229585</v>
       </c>
     </row>
@@ -687,39 +707,42 @@
         </is>
       </c>
       <c r="C7">
-        <v>24</v>
-      </c>
-      <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="F7">
         <v>30</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>413.8028520389279</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5.451556249999999</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8.954929658551372</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.2941174902024098</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>42.03240939752111</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>23.7605365087647</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>22.95092939540707</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>22.08877283907784</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>21.22709159313998</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>19.92833777025859</v>
       </c>
     </row>
@@ -735,39 +758,42 @@
         </is>
       </c>
       <c r="C8">
-        <v>24</v>
-      </c>
-      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="F8">
         <v>25</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>286.4788975654116</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.71618125</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4.318309886183791</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.3069443331443699</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>42.01470066358248</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>23.7605365087647</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>22.68000002703667</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>21.82881263880263</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>20.97715742863508</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>19.72704707856601</v>
       </c>
     </row>
@@ -783,39 +809,42 @@
         </is>
       </c>
       <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="F9">
         <v>30</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>410.2660755257746</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>10.80558819444444</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>6.959780946709921</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-0.8029277516176924</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>41.989249463284</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>17.918051987391</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>17.11004786640839</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>16.37550513871116</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>15.66722335154861</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>14.82625480840733</v>
       </c>
     </row>
@@ -831,39 +860,42 @@
         </is>
       </c>
       <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="F10">
         <v>35</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>427.9499580915408</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6.4400875</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>6.570735530263064</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.6705689320872893</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>41.97763301357509</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>17.98842743496666</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>17.15919921526908</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>16.39405205913995</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>15.72401271334444</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>14.91565559410714</v>
       </c>
     </row>
@@ -879,39 +911,42 @@
         </is>
       </c>
       <c r="C11">
-        <v>24</v>
-      </c>
-      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="F11">
         <v>50</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>462.4688968599164</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>40.09622177777778</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>19.94785610552506</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.7315095518502307</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>41.96084265247229</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>17.64941419067288</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>16.29232965121451</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>15.58968056570815</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>14.94597847477345</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>14.12593570718581</v>
       </c>
     </row>
@@ -927,39 +962,42 @@
         </is>
       </c>
       <c r="C12">
-        <v>24</v>
-      </c>
-      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="F12">
         <v>38</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>616.9552949544494</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>22.20346377777778</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>13.12247266631497</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.4195233355391503</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>41.91822837943751</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>17.76657436517027</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>16.69172927717861</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>16.05130558139828</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>15.32676813327865</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>14.46162832475571</v>
       </c>
     </row>
@@ -975,39 +1013,42 @@
         </is>
       </c>
       <c r="C13">
-        <v>24</v>
-      </c>
-      <c r="E13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="F13">
         <v>40</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1170.673025853719</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>23.49929166666667</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>10.1591549430919</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.3615167976761336</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>41.86287611869903</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>17.26045862814087</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>16.61277666530639</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>15.86776861588524</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>15.21076219631808</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>14.34877943521627</v>
       </c>
     </row>
@@ -1023,39 +1064,42 @@
         </is>
       </c>
       <c r="C14">
-        <v>24</v>
-      </c>
-      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="F14">
         <v>35</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>509.2958178940651</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4.392562499999999</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4.636619772367582</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.417707735520025</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>41.96321504791899</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>24.70755528886735</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>22.50756298011579</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>21.69669170572078</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>20.77107655168578</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>19.63090396954622</v>
       </c>
     </row>
@@ -1071,39 +1115,42 @@
         </is>
       </c>
       <c r="C15">
-        <v>24</v>
-      </c>
-      <c r="E15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="F15">
         <v>45</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>827.6057040778558</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>12.32741875</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>8.136619772367581</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.418797592140066</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>41.93622309715234</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>22.59489974257792</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>22.82818046668849</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>21.93314662197248</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>21.00048246167945</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>19.88054075368023</v>
       </c>
     </row>
@@ -1119,39 +1166,42 @@
         </is>
       </c>
       <c r="C16">
-        <v>24</v>
-      </c>
-      <c r="E16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="F16">
         <v>55</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1687.042396774091</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>19.85203125</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>8.818309886183789</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.358921715797357</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>41.92585503379089</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>20.15693166186416</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>19.78129592493135</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>19.0609581062971</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>18.32374443389006</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>17.19239534374936</v>
       </c>
     </row>
@@ -1167,39 +1217,42 @@
         </is>
       </c>
       <c r="C17">
-        <v>24</v>
-      </c>
-      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="F17">
         <v>25</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>364.2879808547826</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>9.071034027777777</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>8.871361533881089</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.3830167456945581</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>41.92640710690318</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>21.48152495036494</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>20.47430833094455</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>19.77196069316389</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>18.97709433687296</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>17.82688761156847</v>
       </c>
     </row>
@@ -1215,39 +1268,42 @@
         </is>
       </c>
       <c r="C18">
-        <v>24</v>
-      </c>
-      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>24</v>
+      </c>
+      <c r="F18">
         <v>35</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>254.6479089470325</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>3.66339375</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5.795774715459476</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.4432572421640853</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>41.92776519269536</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>22.59489974257792</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>21.78894471056561</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>21.0450685178992</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>20.14039569267349</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>19.01138318244431</v>
       </c>
     </row>
@@ -1263,39 +1319,42 @@
         </is>
       </c>
       <c r="C19">
-        <v>24</v>
-      </c>
-      <c r="E19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="F19">
         <v>50</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>664.9139844728072</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>14.72382152777778</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>10.03051647697299</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.4553058361801334</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>41.92803302140481</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>22.59489974257792</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>22.03054189710589</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>21.20071965928116</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>20.36758834611614</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>19.23149022593228</v>
       </c>
     </row>
@@ -1311,39 +1370,42 @@
         </is>
       </c>
       <c r="C20">
-        <v>24</v>
-      </c>
-      <c r="E20">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="F20">
         <v>50</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>459.7809467099199</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>9.1926875</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>10.39611896947316</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.3713386909133673</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>41.91713467762931</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>20.15693166186416</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>19.5239647834008</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>18.77265496525517</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>18.04287041122718</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>16.95533254013601</v>
       </c>
     </row>
@@ -1359,39 +1421,42 @@
         </is>
       </c>
       <c r="C21">
-        <v>24</v>
-      </c>
-      <c r="E21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="F21">
         <v>40</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>604.7887837492023</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>5.9101375</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>6.5</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.3717080669237832</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>41.90813763675396</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>18.79046561941916</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>18.63739100635389</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>17.91496065010044</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>17.21144978544276</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>16.22647190755924</v>
       </c>
     </row>
@@ -1407,39 +1472,42 @@
         </is>
       </c>
       <c r="C22">
-        <v>24</v>
-      </c>
-      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="F22">
         <v>45</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>86.01440479988655</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>9.074298000000001</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>21.35197368421053</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.2089805088782078</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>41.7692130010807</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>16.23485232240307</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>15.5689734655456</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>14.89355281997324</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>14.23848880598697</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>13.43529072006646</v>
       </c>
     </row>
@@ -1455,39 +1523,42 @@
         </is>
       </c>
       <c r="C23">
-        <v>24</v>
-      </c>
-      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="F23">
         <v>40</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>155.6181665787421</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>9.075783333333334</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>8.853677651315323</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-0.4868109100970098</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>41.73960786030961</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>18.83295269961458</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>18.48930495353693</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>17.51625482419255</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>16.78934011803223</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>15.78702983308794</v>
       </c>
     </row>
@@ -1503,39 +1574,42 @@
         </is>
       </c>
       <c r="C24">
-        <v>24</v>
-      </c>
-      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="F24">
         <v>35</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1114.084601643267</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>10.23033125</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>6.5</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-0.4631381817264328</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>41.73008151552626</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>18.83295269961458</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>18.62554486078735</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>17.64590796156618</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>16.9137766747427</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>15.90563396373809</v>
       </c>
     </row>
@@ -1551,39 +1625,42 @@
         </is>
       </c>
       <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="F25">
         <v>30</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>381.9718634205488</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2.919125</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>5</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.1916129599222599</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>41.61569388274437</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>15.09477510586591</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>14.43609026675816</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>13.87449455229918</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>13.29036037932923</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>12.51934643720969</v>
       </c>
     </row>
@@ -1599,39 +1676,42 @@
         </is>
       </c>
       <c r="C26">
-        <v>24</v>
-      </c>
-      <c r="E26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="F26">
         <v>35</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>159.1549430918953</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3.04753125</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>7.159154943091894</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.2163629828503693</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>41.59828482793819</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>14.36908014999179</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>15.0722835335383</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>14.38106790811153</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>13.77837111963927</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>12.99462909010273</v>
       </c>
     </row>
@@ -1647,39 +1727,42 @@
         </is>
       </c>
       <c r="C27">
-        <v>24</v>
-      </c>
-      <c r="E27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="F27">
         <v>35</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>159.1549430918953</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.12758125</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>4.159154943091895</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.3040049339964011</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>41.51031614159859</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>13.7987853287131</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>13.94619517309703</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>13.36334984815141</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>12.79107323428637</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>12.07243451746654</v>
       </c>
     </row>
@@ -1695,39 +1778,42 @@
         </is>
       </c>
       <c r="C28">
-        <v>24</v>
-      </c>
-      <c r="E28">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="F28">
         <v>20</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>141.4710605261292</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2.529636111111111</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>6.503130018090122</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-4.81370643444469</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>39.92424855335096</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>13.36215220927093</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>12.70784951043209</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>11.98919898164064</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>11.56923079347973</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>10.94821403479323</v>
       </c>
     </row>
@@ -1743,39 +1829,42 @@
         </is>
       </c>
       <c r="C29">
-        <v>24</v>
-      </c>
-      <c r="E29">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>24</v>
+      </c>
+      <c r="F29">
         <v>22</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1128.23170769588</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>16.58024652777778</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>8.72989047335496</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-4.802010576559634</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>39.92443096896485</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>13.36215220927093</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>13.06096991070758</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>12.32628397459752</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>11.89555979449025</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>11.22888085869408</v>
       </c>
     </row>
@@ -1791,39 +1880,42 @@
         </is>
       </c>
       <c r="C30">
-        <v>24</v>
-      </c>
-      <c r="E30">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="F30">
         <v>25</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>254.6479089470325</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1.31345</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>5</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-3.490792107382947</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>39.82928155944871</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>15.53035039731647</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>15.14195580749114</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>14.29880848158502</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>13.69895675658655</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>13.00888817892826</v>
       </c>
     </row>
@@ -1839,39 +1931,42 @@
         </is>
       </c>
       <c r="C31">
-        <v>24</v>
-      </c>
-      <c r="E31">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>24</v>
+      </c>
+      <c r="F31">
         <v>25</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1368.7325105903</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>11.00769375</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>6.5</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-3.479106970446206</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>39.82933040280165</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>15.53035039731647</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>15.17546630026497</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>14.25597062341753</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>13.65591396585254</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>13.00043801381316</v>
       </c>
     </row>
@@ -1887,39 +1982,42 @@
         </is>
       </c>
       <c r="C32">
-        <v>24</v>
-      </c>
-      <c r="E32">
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="F32">
         <v>25</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>986.7606471697511</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>8.51793125</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>7.750704374010849</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-3.502411591937773</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>39.82022206560072</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>15.35868802992267</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>15.10648363045854</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>14.22548125860254</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>13.62945297652364</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>12.94271965449284</v>
       </c>
     </row>
@@ -1935,39 +2033,42 @@
         </is>
       </c>
       <c r="C33">
-        <v>24</v>
-      </c>
-      <c r="E33">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="F33">
         <v>40</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>940.7825524987591</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>26.65498888888889</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>14.07073553026307</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-3.478856852481718</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>39.79329229750852</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>15.53035039731647</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>14.72693025567995</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>13.86439649922279</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>13.24236128339956</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>12.60043512839629</v>
       </c>
     </row>
@@ -1983,42 +2084,45 @@
         </is>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34">
         <v>2004</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>45</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>381.9718634205488</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>6.857856249999999</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>5.659154943091895</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-0.7202423536331397</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>42.27581127304372</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>22.81109769795858</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>21.3690572553428</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>20.48407644867448</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>19.60174222587566</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>18.62446754436796</v>
       </c>
     </row>
@@ -2034,42 +2138,45 @@
         </is>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="E35">
         <v>2004</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>30</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>116.7136249340566</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>7.240041666666666</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>8.354804649732682</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.2513143233200058</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>42.18447943184577</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>24.61696812668274</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>23.808891792888</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>22.97170575740301</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>21.98357547964379</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>20.88888881971807</v>
       </c>
     </row>
@@ -2085,42 +2192,45 @@
         </is>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36">
         <v>2004</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>35</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>813.4585980252428</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>19.21409930555555</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>12.31830988618379</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.001603372769562589</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>42.08817003648597</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>21.10061177332261</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>20.44103549951306</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>19.70707366590505</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>18.78197334113128</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>17.79365796382601</v>
       </c>
     </row>
@@ -2136,42 +2246,45 @@
         </is>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37">
+        <v>24</v>
+      </c>
+      <c r="E37">
         <v>2004</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>40</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>378.4350869073955</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>7.625559722222222</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>9.286478897565411</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.2699842237446595</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>42.03183750202464</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>21.33377990038201</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>21.07659780934286</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>20.40285497737899</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>19.49163052233736</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>18.40557748229585</v>
       </c>
     </row>
@@ -2187,42 +2300,45 @@
         </is>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D38">
+        <v>24</v>
+      </c>
+      <c r="E38">
         <v>2004</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>35</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>668.4507609859604</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>8.798993749999999</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>10.21380285203893</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.3427610752100836</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>42.02454133680303</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>24.24562218458991</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>23.0043491311475</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>22.14180913176553</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>21.24164279940102</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>19.984435812497</v>
       </c>
     </row>
@@ -2238,42 +2354,45 @@
         </is>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39">
+        <v>24</v>
+      </c>
+      <c r="E39">
         <v>2004</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>35</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>954.929658551372</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>10.93274375</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>6.477464829275686</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.3069443331443699</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>42.01470066358248</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>23.7605365087647</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>22.68000002703667</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>21.82881263880263</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>20.97715742863508</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>19.72704707856601</v>
       </c>
     </row>
@@ -2289,42 +2408,45 @@
         </is>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40">
         <v>2004</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>45</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>456.2441701967666</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>9.364725694444445</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>7.401878010854074</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>-0.6705689320872893</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>41.97763301357509</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>17.98842743496666</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>17.15919921526908</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>16.39405205913995</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>15.72401271334444</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>14.91565559410714</v>
       </c>
     </row>
@@ -2340,42 +2462,45 @@
         </is>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D41">
+        <v>24</v>
+      </c>
+      <c r="E41">
         <v>2004</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>60</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>396.6848537152663</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>41.90960188888889</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>24.24130835715692</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>-0.7315095518502307</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>41.96084265247229</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>17.64941419067288</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>16.29232965121451</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>15.58968056570815</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>14.94597847477345</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>14.12593570718581</v>
       </c>
     </row>
@@ -2391,42 +2516,45 @@
         </is>
       </c>
       <c r="C42">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D42">
+        <v>24</v>
+      </c>
+      <c r="E42">
         <v>2004</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>50</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>1092.863942564348</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>27.53188472222222</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>12.44209706414416</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>-0.3615167976761336</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>41.86287611869903</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>17.26045862814087</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>16.61277666530639</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>15.86776861588524</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>15.21076219631808</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>14.34877943521627</v>
       </c>
     </row>
@@ -2442,42 +2570,45 @@
         </is>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43">
+        <v>24</v>
+      </c>
+      <c r="E43">
         <v>2004</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>55</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>381.9718634205488</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>10.0862375</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>9.5</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0.418797592140066</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>41.93622309715234</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>22.59489974257792</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>22.82818046668849</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>21.93314662197248</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>21.00048246167945</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>19.88054075368023</v>
       </c>
     </row>
@@ -2493,42 +2624,45 @@
         </is>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D44">
+        <v>24</v>
+      </c>
+      <c r="E44">
         <v>2004</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>65</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>1000.907753222364</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>12.87633819444444</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>9.659154943091893</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0.358921715797357</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>41.92585503379089</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>20.15693166186416</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>19.78129592493135</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>19.0609581062971</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>18.32374443389006</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>17.19239534374936</v>
       </c>
     </row>
@@ -2544,42 +2678,45 @@
         </is>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D45">
+        <v>24</v>
+      </c>
+      <c r="E45">
         <v>2004</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>35</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>385.5086399337021</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>15.49083680555556</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>12.71220659078919</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.3830167456945581</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>41.92640710690318</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>21.48152495036494</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>20.47430833094455</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>19.77196069316389</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>18.97709433687296</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>17.82688761156847</v>
       </c>
     </row>
@@ -2595,42 +2732,45 @@
         </is>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D46">
+        <v>24</v>
+      </c>
+      <c r="E46">
         <v>2004</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>45</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>413.8028520389279</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>4.8352375</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>6.409859317102744</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>0.4432572421640853</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>41.92776519269536</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>22.59489974257792</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>21.78894471056561</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>21.0450685178992</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>20.14039569267349</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>19.01138318244431</v>
       </c>
     </row>
@@ -2646,42 +2786,45 @@
         </is>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D47">
+        <v>24</v>
+      </c>
+      <c r="E47">
         <v>2004</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>50</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>222.8169203286535</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>5.1878375</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>8.159154943091895</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0.3717080669237832</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>41.90813763675396</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>18.79046561941916</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>18.63739100635389</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>17.91496065010044</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>17.21144978544276</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>16.22647190755924</v>
       </c>
     </row>
@@ -2697,42 +2840,45 @@
         </is>
       </c>
       <c r="C48">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48">
+        <v>24</v>
+      </c>
+      <c r="E48">
         <v>2004</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>45</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>923.0986699329929</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>12.57611875</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>8.636619772367581</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0.598211937951826</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>41.97614118725294</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>23.45809656132288</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>25.36114461616469</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>24.35074754371321</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>23.33497297010178</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>22.01411146608307</v>
       </c>
     </row>
@@ -2748,42 +2894,45 @@
         </is>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49">
         <v>2004</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>55</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>69.03787753675104</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>12.18910444444444</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>24.64754098360656</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>-0.2089805088782078</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>41.7692130010807</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>16.23485232240307</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>15.5689734655456</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>14.89355281997324</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>14.23848880598697</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>13.43529072006646</v>
       </c>
     </row>
@@ -2799,42 +2948,45 @@
         </is>
       </c>
       <c r="C50">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D50">
+        <v>24</v>
+      </c>
+      <c r="E50">
         <v>2004</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>50</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>1397.026722695526</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>20.11290069444444</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>9.507981306248672</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>-0.4631381817264328</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>41.73008151552626</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>18.83295269961458</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>18.62554486078735</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>17.64590796156618</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>16.9137766747427</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>15.90563396373809</v>
       </c>
     </row>
@@ -2850,42 +3002,45 @@
         </is>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D51">
+        <v>24</v>
+      </c>
+      <c r="E51">
         <v>2004</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>40</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>986.7606471697511</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>6.8561125</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>6.659154943091895</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>0.1916129599222599</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>41.61569388274437</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>15.09477510586591</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>14.43609026675816</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>13.87449455229918</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>13.29036037932923</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>12.51934643720969</v>
       </c>
     </row>
@@ -2901,42 +3056,45 @@
         </is>
       </c>
       <c r="C52">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D52">
+        <v>24</v>
+      </c>
+      <c r="E52">
         <v>2004</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>40</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>413.8028520389279</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>3.36075</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>5</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>0.1916129599222599</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>41.61569388274437</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>15.09477510586591</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>14.43609026675816</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>13.87449455229918</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>13.29036037932923</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>12.51934643720969</v>
       </c>
     </row>
@@ -2952,42 +3110,45 @@
         </is>
       </c>
       <c r="C53">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53">
         <v>2004</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>45</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>236.9640263812664</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>5.844546527777778</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>9.795774715459476</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>0.2163629828503693</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>41.59828482793819</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>14.36908014999179</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>15.0722835335383</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>14.38106790811153</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>13.77837111963927</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>12.99462909010273</v>
       </c>
     </row>
@@ -3003,42 +3164,45 @@
         </is>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D54">
+        <v>24</v>
+      </c>
+      <c r="E54">
         <v>2004</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>45</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>159.1549430918953</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>2.00655625</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>5.159154943091895</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>0.3040049339964011</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>41.51031614159859</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>13.7987853287131</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>13.94619517309703</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>13.36334984815141</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>12.79107323428637</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>12.07243451746654</v>
       </c>
     </row>
@@ -3054,42 +3218,45 @@
         </is>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D55">
+        <v>24</v>
+      </c>
+      <c r="E55">
         <v>2004</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>45</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>127.3239544735163</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>2.26530625</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>5.63661977236758</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0.3040049339964011</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>41.51031614159859</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>13.7987853287131</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>13.94619517309703</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>13.36334984815141</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>12.79107323428637</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>12.07243451746654</v>
       </c>
     </row>
@@ -3105,42 +3272,45 @@
         </is>
       </c>
       <c r="C56">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D56">
+        <v>24</v>
+      </c>
+      <c r="E56">
         <v>2004</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>20</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>318.3098861837907</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>2.23378125</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>4.477464829275686</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>-3.702036862156831</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>39.91829183070406</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>15.00758316628349</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>14.67625895778199</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>13.89301419142615</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>13.30376936850989</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>12.58777629994392</v>
       </c>
     </row>
@@ -3156,42 +3326,45 @@
         </is>
       </c>
       <c r="C57">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D57">
+        <v>24</v>
+      </c>
+      <c r="E57">
         <v>2005</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>15</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>445.6338406573069</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>3.26430625</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>4.795774715459476</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>-3.222698621242866</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>40.03732759822316</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>16.53561901115236</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>15.09027562423535</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>14.20858905057768</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>13.57271095927226</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>12.88095922896556</v>
       </c>
     </row>
@@ -3207,42 +3380,45 @@
         </is>
       </c>
       <c r="C58">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D58">
+        <v>24</v>
+      </c>
+      <c r="E58">
         <v>2005</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>20</v>
       </c>
-      <c r="F58">
-        <v>31.83098861837907</v>
-      </c>
       <c r="G58">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H58">
         <v>0.7055999999999997</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>5.000000000000001</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>-3.443877490355764</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>39.80244118127098</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>15.77499800129299</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>14.95739992994918</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>14.08312962334714</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>13.45259393779198</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>12.80279841876712</v>
       </c>
     </row>
@@ -3258,42 +3434,45 @@
         </is>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D59">
+        <v>24</v>
+      </c>
+      <c r="E59">
         <v>2004</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>30</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>233.4272498681132</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>8.170436805555555</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>8.848826363156775</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>-4.81370643444469</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>39.92424855335096</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>13.36215220927093</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>12.70784951043209</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>11.98919898164064</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>11.56923079347973</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>10.94821403479323</v>
       </c>
     </row>
@@ -3309,42 +3488,45 @@
         </is>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D60">
+        <v>24</v>
+      </c>
+      <c r="E60">
         <v>2004</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>35</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>572.9577951308232</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>7.655143749999999</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>7.977464829275687</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>-3.490792107382947</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>39.82928155944871</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>15.53035039731647</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>15.14195580749114</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>14.29880848158502</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>13.69895675658655</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>13.00888817892826</v>
       </c>
     </row>
@@ -3360,42 +3542,45 @@
         </is>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D61">
+        <v>24</v>
+      </c>
+      <c r="E61">
         <v>2004</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>35</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>923.0986699329929</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>13.21903125</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>9.454929658551372</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>-3.502411591937773</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>39.82022206560072</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>15.35868802992267</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>15.10648363045854</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>14.22548125860254</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>13.62945297652364</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>12.94271965449284</v>
       </c>
     </row>
@@ -3411,42 +3596,45 @@
         </is>
       </c>
       <c r="C62">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D62">
+        <v>24</v>
+      </c>
+      <c r="E62">
         <v>2021</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>27</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>1082.253613024888</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>11.599025</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>9.127324136611895</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>-0.006202854370670413</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>41.50105252772247</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>15.14280459042253</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>14.5759552936796</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>13.96152093830223</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>13.3609713262753</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>12.61146489067578</v>
       </c>
     </row>
@@ -3462,42 +3650,45 @@
         </is>
       </c>
       <c r="C63">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D63">
+        <v>24</v>
+      </c>
+      <c r="E63">
         <v>2019</v>
       </c>
-      <c r="E63">
-        <v>24</v>
-      </c>
       <c r="F63">
+        <v>24</v>
+      </c>
+      <c r="G63">
         <v>222.8169203286535</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>3.63240625</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>6.850140844445774</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>-4.193543364265368</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>39.84934348095345</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>13.2186462340828</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>12.2582601549995</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>11.63337249560443</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>11.15478413762712</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>10.54759902012039</v>
       </c>
     </row>
